--- a/Banco de Dados/Dicionario de dados.xlsx
+++ b/Banco de Dados/Dicionario de dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princesa\Documents\Bandtec\GIT-Bandtec\grupo9-ads\Banco de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teodoro\Desktop\grupo9-ads\Banco de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEF0CDC-81AD-455F-A443-1D8EF7CE5489}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8A22A6-4A21-447A-B736-D55EE24A1E63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8216B3B1-9DBC-447D-A8C2-D089C8F8847B}"/>
+    <workbookView xWindow="525" yWindow="30" windowWidth="15375" windowHeight="7875" xr2:uid="{8216B3B1-9DBC-447D-A8C2-D089C8F8847B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>dominio</t>
   </si>
@@ -211,22 +211,23 @@
   </si>
   <si>
     <t>xx.xxx.xxx/xxxx-xx</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>apelido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome da geladeira para interpretar tipo de medicamento </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -238,6 +239,23 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -266,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,16 +301,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -301,12 +322,6 @@
   </cellStyles>
   <dxfs count="36">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -340,7 +355,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -373,52 +388,58 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -440,64 +461,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C4D8B25-9FD8-485D-87A6-95211DD7C718}" name="Tabela3" displayName="Tabela3" ref="A2:G8" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C4D8B25-9FD8-485D-87A6-95211DD7C718}" name="Tabela3" displayName="Tabela3" ref="A2:G8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A2:G8" xr:uid="{5863D25D-0C8A-4ADE-BFAD-B8DBBBE361D8}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3B4A6A92-2C9F-4F6C-9A7A-C8557925F3CE}" name="nome" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{8364ECD7-B0A8-4E4A-A427-B9C8E2CE5BB4}" name="descrição" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{21EA17A4-77DA-48B8-8C3F-8C8645064AB3}" name="tipo" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{5B6CBB9A-BD96-4AA9-A9B7-17FFF7F08617}" name="tamanho" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{B21A5A70-D7BA-491F-80BD-C374099C170E}" name="dominio" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{F674E7B7-78CB-4310-9AB5-12F91D3B5252}" name="formato" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{E2070883-DA67-4B1D-8608-995C122D861A}" name="restrições" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{3B4A6A92-2C9F-4F6C-9A7A-C8557925F3CE}" name="nome" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{8364ECD7-B0A8-4E4A-A427-B9C8E2CE5BB4}" name="descrição" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{21EA17A4-77DA-48B8-8C3F-8C8645064AB3}" name="tipo" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{5B6CBB9A-BD96-4AA9-A9B7-17FFF7F08617}" name="tamanho" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{B21A5A70-D7BA-491F-80BD-C374099C170E}" name="dominio" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{F674E7B7-78CB-4310-9AB5-12F91D3B5252}" name="formato" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{E2070883-DA67-4B1D-8608-995C122D861A}" name="restrições" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{046DC458-B0AF-4388-A866-63858DA16F8A}" name="Tabela4" displayName="Tabela4" ref="A11:G14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19">
-  <autoFilter ref="A11:G14" xr:uid="{CA082778-8308-4396-831D-1A415AA52195}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{046DC458-B0AF-4388-A866-63858DA16F8A}" name="Tabela4" displayName="Tabela4" ref="A11:G15" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A11:G15" xr:uid="{CA082778-8308-4396-831D-1A415AA52195}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A576B442-BD0D-407D-8ADE-79B47E8C074D}" name="nome" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{D6087151-82BB-44C4-8D04-02FA93FDA407}" name="descrição" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{2661E471-8F90-4F72-A6CA-CBD7C1900159}" name="tipo" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{56A9376E-EFFB-4E88-8772-EA916EC5DEE9}" name="tamanho" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{538B5A28-264F-407C-8193-F12E93CCFCDF}" name="dominio" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{01F6DCA0-006C-4CE0-A7D4-C66F9FC50846}" name="formato" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{C7EB5DE2-2E0C-4790-B9D9-3D8892B1AC6E}" name="restrições" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{A576B442-BD0D-407D-8ADE-79B47E8C074D}" name="nome" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{D6087151-82BB-44C4-8D04-02FA93FDA407}" name="descrição" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{2661E471-8F90-4F72-A6CA-CBD7C1900159}" name="tipo" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{56A9376E-EFFB-4E88-8772-EA916EC5DEE9}" name="tamanho" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{538B5A28-264F-407C-8193-F12E93CCFCDF}" name="dominio" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{01F6DCA0-006C-4CE0-A7D4-C66F9FC50846}" name="formato" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{C7EB5DE2-2E0C-4790-B9D9-3D8892B1AC6E}" name="restrições" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{36A40C92-9B2C-47E1-A879-793EEEE4A3AE}" name="Tabela5" displayName="Tabela5" ref="A17:G23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
-  <autoFilter ref="A17:G23" xr:uid="{C20F07DA-1879-43D2-9775-26BB9DFEB828}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{36A40C92-9B2C-47E1-A879-793EEEE4A3AE}" name="Tabela5" displayName="Tabela5" ref="A18:G24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A18:G24" xr:uid="{C20F07DA-1879-43D2-9775-26BB9DFEB828}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9023E542-B918-41FD-8985-4E4593BB3BD1}" name="nome" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{AA469F39-5722-4CCE-BF66-9891EA880B8E}" name="descrição" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{68875B3F-DFFA-4A8C-A5BE-1685E4BCB613}" name="tipo" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{61F54AE9-6BD2-466F-B77B-91666E1C4EA3}" name="tamanho" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{24D21FCC-16A6-4DE5-908C-10218E4C9129}" name="dominio" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{AB9B7C5C-7513-49AD-9605-5B464B09F87F}" name="formato" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{D2719BA9-DCAC-48BC-8195-33394EABF862}" name="restrições" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{9023E542-B918-41FD-8985-4E4593BB3BD1}" name="nome" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{AA469F39-5722-4CCE-BF66-9891EA880B8E}" name="descrição" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{68875B3F-DFFA-4A8C-A5BE-1685E4BCB613}" name="tipo" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{61F54AE9-6BD2-466F-B77B-91666E1C4EA3}" name="tamanho" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{24D21FCC-16A6-4DE5-908C-10218E4C9129}" name="dominio" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{AB9B7C5C-7513-49AD-9605-5B464B09F87F}" name="formato" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{D2719BA9-DCAC-48BC-8195-33394EABF862}" name="restrições" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C00E5A94-CBC5-4A3B-848A-BAA43508DCD7}" name="Tabela6" displayName="Tabela6" ref="A26:G31" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A26:G31" xr:uid="{17758034-83A2-4B20-889A-B72D23DF6F2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C00E5A94-CBC5-4A3B-848A-BAA43508DCD7}" name="Tabela6" displayName="Tabela6" ref="A27:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A27:G32" xr:uid="{17758034-83A2-4B20-889A-B72D23DF6F2F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1384A437-A2FB-4CE9-BF0D-FA928434935D}" name="nome" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{9E89A8A5-89F8-4160-87DD-F5974F287CE6}" name="descrição" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{9E5BE7FF-71B6-4A6C-8C92-8BB29A438B24}" name="tipo" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{13C4CBB8-8325-4CDD-ADB8-3FB022F63D3F}" name="tamanho" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{24C262F8-9185-4600-BFD9-8DF2279812D0}" name="dominio" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{39B06816-A4CA-454F-8C08-8C273678A49B}" name="formato" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{B8B7D606-B2A7-4F69-A98A-3ED213FCA3DF}" name="restrições" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1384A437-A2FB-4CE9-BF0D-FA928434935D}" name="nome" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9E89A8A5-89F8-4160-87DD-F5974F287CE6}" name="descrição" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{9E5BE7FF-71B6-4A6C-8C92-8BB29A438B24}" name="tipo" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{13C4CBB8-8325-4CDD-ADB8-3FB022F63D3F}" name="tamanho" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{24C262F8-9185-4600-BFD9-8DF2279812D0}" name="dominio" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{39B06816-A4CA-454F-8C08-8C273678A49B}" name="formato" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B8B7D606-B2A7-4F69-A98A-3ED213FCA3DF}" name="restrições" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -800,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BB7CD9-6424-4AD5-94E5-5EE6407FF54C}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,15 +839,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -886,7 +907,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -911,7 +932,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -1013,15 +1034,15 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -1073,35 +1094,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1119,106 +1136,106 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>11</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2">
-        <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
@@ -1232,13 +1249,13 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -1255,13 +1272,13 @@
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -1278,13 +1295,13 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
@@ -1299,79 +1316,79 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>11</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="1">
-        <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>15</v>
@@ -1385,87 +1402,110 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>59</v>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
+      <c r="F30" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="1">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1">
         <v>10</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A26:G26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Banco de Dados/Dicionario de dados.xlsx
+++ b/Banco de Dados/Dicionario de dados.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teodoro\Desktop\grupo9-ads\Banco de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PI\grupo9-ads\Banco de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8A22A6-4A21-447A-B736-D55EE24A1E63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="30" windowWidth="15375" windowHeight="7875" xr2:uid="{8216B3B1-9DBC-447D-A8C2-D089C8F8847B}"/>
+    <workbookView xWindow="525" yWindow="30" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,12 +98,6 @@
     <t>AAAA/MM/DD</t>
   </si>
   <si>
-    <t>entidade: dados</t>
-  </si>
-  <si>
-    <t>entidade: geladeira</t>
-  </si>
-  <si>
     <t>IdGeladeira</t>
   </si>
   <si>
@@ -120,9 +113,6 @@
     <t>chave estrangeira que referencia qual medicamento esta armazenado na geladeira</t>
   </si>
   <si>
-    <t>entidade:  medicamentos</t>
-  </si>
-  <si>
     <t>IdMedicamento</t>
   </si>
   <si>
@@ -168,9 +158,6 @@
     <t>codigo de identificação único da geladeira</t>
   </si>
   <si>
-    <t>entidade: usuario</t>
-  </si>
-  <si>
     <t>idUser</t>
   </si>
   <si>
@@ -220,13 +207,25 @@
   </si>
   <si>
     <t xml:space="preserve">nome da geladeira para interpretar tipo de medicamento </t>
+  </si>
+  <si>
+    <t>Entidade: dados</t>
+  </si>
+  <si>
+    <t>Entidade: geladeira</t>
+  </si>
+  <si>
+    <t>Entidade:  medicamentos</t>
+  </si>
+  <si>
+    <t>Entidade: usuario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,7 +241,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <u/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -250,8 +250,15 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -284,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,17 +311,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,64 +471,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C4D8B25-9FD8-485D-87A6-95211DD7C718}" name="Tabela3" displayName="Tabela3" ref="A2:G8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A2:G8" xr:uid="{5863D25D-0C8A-4ADE-BFAD-B8DBBBE361D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:G8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A2:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3B4A6A92-2C9F-4F6C-9A7A-C8557925F3CE}" name="nome" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{8364ECD7-B0A8-4E4A-A427-B9C8E2CE5BB4}" name="descrição" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{21EA17A4-77DA-48B8-8C3F-8C8645064AB3}" name="tipo" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{5B6CBB9A-BD96-4AA9-A9B7-17FFF7F08617}" name="tamanho" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{B21A5A70-D7BA-491F-80BD-C374099C170E}" name="dominio" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{F674E7B7-78CB-4310-9AB5-12F91D3B5252}" name="formato" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{E2070883-DA67-4B1D-8608-995C122D861A}" name="restrições" dataDxfId="27"/>
+    <tableColumn id="1" name="nome" dataDxfId="33"/>
+    <tableColumn id="2" name="descrição" dataDxfId="32"/>
+    <tableColumn id="3" name="tipo" dataDxfId="31"/>
+    <tableColumn id="4" name="tamanho" dataDxfId="30"/>
+    <tableColumn id="5" name="dominio" dataDxfId="29"/>
+    <tableColumn id="6" name="formato" dataDxfId="28"/>
+    <tableColumn id="7" name="restrições" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{046DC458-B0AF-4388-A866-63858DA16F8A}" name="Tabela4" displayName="Tabela4" ref="A11:G15" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A11:G15" xr:uid="{CA082778-8308-4396-831D-1A415AA52195}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A11:G15" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A11:G15"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A576B442-BD0D-407D-8ADE-79B47E8C074D}" name="nome" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{D6087151-82BB-44C4-8D04-02FA93FDA407}" name="descrição" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{2661E471-8F90-4F72-A6CA-CBD7C1900159}" name="tipo" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{56A9376E-EFFB-4E88-8772-EA916EC5DEE9}" name="tamanho" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{538B5A28-264F-407C-8193-F12E93CCFCDF}" name="dominio" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{01F6DCA0-006C-4CE0-A7D4-C66F9FC50846}" name="formato" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{C7EB5DE2-2E0C-4790-B9D9-3D8892B1AC6E}" name="restrições" dataDxfId="18"/>
+    <tableColumn id="1" name="nome" dataDxfId="24"/>
+    <tableColumn id="2" name="descrição" dataDxfId="23"/>
+    <tableColumn id="3" name="tipo" dataDxfId="22"/>
+    <tableColumn id="4" name="tamanho" dataDxfId="21"/>
+    <tableColumn id="5" name="dominio" dataDxfId="20"/>
+    <tableColumn id="6" name="formato" dataDxfId="19"/>
+    <tableColumn id="7" name="restrições" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{36A40C92-9B2C-47E1-A879-793EEEE4A3AE}" name="Tabela5" displayName="Tabela5" ref="A18:G24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A18:G24" xr:uid="{C20F07DA-1879-43D2-9775-26BB9DFEB828}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A18:G24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A18:G24"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9023E542-B918-41FD-8985-4E4593BB3BD1}" name="nome" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{AA469F39-5722-4CCE-BF66-9891EA880B8E}" name="descrição" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{68875B3F-DFFA-4A8C-A5BE-1685E4BCB613}" name="tipo" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{61F54AE9-6BD2-466F-B77B-91666E1C4EA3}" name="tamanho" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{24D21FCC-16A6-4DE5-908C-10218E4C9129}" name="dominio" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{AB9B7C5C-7513-49AD-9605-5B464B09F87F}" name="formato" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{D2719BA9-DCAC-48BC-8195-33394EABF862}" name="restrições" dataDxfId="9"/>
+    <tableColumn id="1" name="nome" dataDxfId="15"/>
+    <tableColumn id="2" name="descrição" dataDxfId="14"/>
+    <tableColumn id="3" name="tipo" dataDxfId="13"/>
+    <tableColumn id="4" name="tamanho" dataDxfId="12"/>
+    <tableColumn id="5" name="dominio" dataDxfId="11"/>
+    <tableColumn id="6" name="formato" dataDxfId="10"/>
+    <tableColumn id="7" name="restrições" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C00E5A94-CBC5-4A3B-848A-BAA43508DCD7}" name="Tabela6" displayName="Tabela6" ref="A27:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A27:G32" xr:uid="{17758034-83A2-4B20-889A-B72D23DF6F2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A27:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A27:G32"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1384A437-A2FB-4CE9-BF0D-FA928434935D}" name="nome" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9E89A8A5-89F8-4160-87DD-F5974F287CE6}" name="descrição" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{9E5BE7FF-71B6-4A6C-8C92-8BB29A438B24}" name="tipo" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{13C4CBB8-8325-4CDD-ADB8-3FB022F63D3F}" name="tamanho" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{24C262F8-9185-4600-BFD9-8DF2279812D0}" name="dominio" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{39B06816-A4CA-454F-8C08-8C273678A49B}" name="formato" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{B8B7D606-B2A7-4F69-A98A-3ED213FCA3DF}" name="restrições" dataDxfId="0"/>
+    <tableColumn id="1" name="nome" dataDxfId="6"/>
+    <tableColumn id="2" name="descrição" dataDxfId="5"/>
+    <tableColumn id="3" name="tipo" dataDxfId="4"/>
+    <tableColumn id="4" name="tamanho" dataDxfId="3"/>
+    <tableColumn id="5" name="dominio" dataDxfId="2"/>
+    <tableColumn id="6" name="formato" dataDxfId="1"/>
+    <tableColumn id="7" name="restrições" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -820,11 +830,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BB7CD9-6424-4AD5-94E5-5EE6407FF54C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,16 +848,16 @@
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -904,10 +914,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -929,10 +939,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -955,7 +965,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
@@ -980,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
@@ -1033,16 +1043,16 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -1073,10 +1083,10 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1096,29 +1106,29 @@
     </row>
     <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2">
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1138,10 +1148,10 @@
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1167,16 +1177,16 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1203,10 +1213,10 @@
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1229,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
@@ -1249,13 +1259,13 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -1272,13 +1282,13 @@
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -1295,13 +1305,13 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
@@ -1318,13 +1328,13 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2">
         <v>4</v>
@@ -1343,16 +1353,16 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1379,10 +1389,10 @@
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
@@ -1405,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
@@ -1425,33 +1435,33 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>19</v>
@@ -1466,15 +1476,15 @@
         <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>19</v>

--- a/Banco de Dados/Dicionario de dados.xlsx
+++ b/Banco de Dados/Dicionario de dados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PI\grupo9-ads\Banco de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princesa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5729609-C9A8-49C8-B2F8-77B6543099DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="30" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
   <si>
     <t>dominio</t>
   </si>
@@ -219,12 +214,75 @@
   </si>
   <si>
     <t>Entidade: usuario</t>
+  </si>
+  <si>
+    <t>entidade</t>
+  </si>
+  <si>
+    <t>nome da tabela</t>
+  </si>
+  <si>
+    <t>volume esperado</t>
+  </si>
+  <si>
+    <t>rotina de limpeza</t>
+  </si>
+  <si>
+    <t>Dados</t>
+  </si>
+  <si>
+    <t>Entidade responsavel por armazenar os dados coletados do arduino</t>
+  </si>
+  <si>
+    <t>dados</t>
+  </si>
+  <si>
+    <t>volume diario de 48 ocorrencias</t>
+  </si>
+  <si>
+    <t>1 ano</t>
+  </si>
+  <si>
+    <t>tempo de retenção</t>
+  </si>
+  <si>
+    <t>dados com 1 ano de existencia devem ser deletados automaticamente</t>
+  </si>
+  <si>
+    <t>geladeira</t>
+  </si>
+  <si>
+    <t>guarda as informações sobre qual medicamento esta em qual geladeira e de qual cliente é a geladeira</t>
+  </si>
+  <si>
+    <t>medicamentos</t>
+  </si>
+  <si>
+    <t>guarda informações especificas de temperatura e umidade de cada tipo de medicamento</t>
+  </si>
+  <si>
+    <t>carga inicial de 3 ocorrencias, com adições esporadicas de novos medicamentos</t>
+  </si>
+  <si>
+    <t>permanente</t>
+  </si>
+  <si>
+    <t>não se aplica</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guarda informações dos usuarios </t>
+  </si>
+  <si>
+    <t>carga inicial de 1 ocorrencia e volume diario de x ocorrencias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +336,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,11 +363,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,9 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -317,15 +405,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,64 +587,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:G8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A2:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela3" displayName="Tabela3" ref="A8:G22" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A8:G22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="nome" dataDxfId="33"/>
-    <tableColumn id="2" name="descrição" dataDxfId="32"/>
-    <tableColumn id="3" name="tipo" dataDxfId="31"/>
-    <tableColumn id="4" name="tamanho" dataDxfId="30"/>
-    <tableColumn id="5" name="dominio" dataDxfId="29"/>
-    <tableColumn id="6" name="formato" dataDxfId="28"/>
-    <tableColumn id="7" name="restrições" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nome" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="descrição" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="tipo" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="tamanho" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="dominio" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="formato" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="restrições" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A11:G15" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A11:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela4" displayName="Tabela4" ref="A24:G36" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A24:G36" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="nome" dataDxfId="24"/>
-    <tableColumn id="2" name="descrição" dataDxfId="23"/>
-    <tableColumn id="3" name="tipo" dataDxfId="22"/>
-    <tableColumn id="4" name="tamanho" dataDxfId="21"/>
-    <tableColumn id="5" name="dominio" dataDxfId="20"/>
-    <tableColumn id="6" name="formato" dataDxfId="19"/>
-    <tableColumn id="7" name="restrições" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="nome" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="descrição" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="tipo" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="tamanho" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="dominio" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="formato" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="restrições" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A18:G24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A18:G24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela5" displayName="Tabela5" ref="A38:G52" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A38:G52" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="nome" dataDxfId="15"/>
-    <tableColumn id="2" name="descrição" dataDxfId="14"/>
-    <tableColumn id="3" name="tipo" dataDxfId="13"/>
-    <tableColumn id="4" name="tamanho" dataDxfId="12"/>
-    <tableColumn id="5" name="dominio" dataDxfId="11"/>
-    <tableColumn id="6" name="formato" dataDxfId="10"/>
-    <tableColumn id="7" name="restrições" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="nome" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="descrição" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="tipo" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="tamanho" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="dominio" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="formato" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="restrições" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A27:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A27:G32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela6" displayName="Tabela6" ref="A54:G59" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A54:G59" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="nome" dataDxfId="6"/>
-    <tableColumn id="2" name="descrição" dataDxfId="5"/>
-    <tableColumn id="3" name="tipo" dataDxfId="4"/>
-    <tableColumn id="4" name="tamanho" dataDxfId="3"/>
-    <tableColumn id="5" name="dominio" dataDxfId="2"/>
-    <tableColumn id="6" name="formato" dataDxfId="1"/>
-    <tableColumn id="7" name="restrições" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="nome" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="descrição" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tipo" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="tamanho" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="dominio" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="formato" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="restrições" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -830,11 +946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,287 +964,228 @@
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
+      <c r="B2" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="A5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1146,376 +1203,752 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="2">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="2">
-        <v>4</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="2">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>11</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2">
+        <v>30</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D56" s="1">
         <v>40</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D57" s="1">
         <v>14</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="E57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D58" s="1">
         <v>30</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D59" s="1">
         <v>10</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
